--- a/4_labeled.xlsx
+++ b/4_labeled.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vBqRGNV27gCqfFlpl6fDD3/Ddwsez7GGN0NUChbdf3g="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="610">
   <si>
     <t>post_id</t>
   </si>
@@ -55,6 +60,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>relevant</t>
+  </si>
+  <si>
     <t>j477hj1</t>
   </si>
   <si>
@@ -236,6 +244,9 @@
   </si>
   <si>
     <t>sscarletwitch7</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
   </si>
   <si>
     <t>j492k4r</t>
@@ -1846,15 +1857,10 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1877,20 +1883,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2107,9 +2112,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2157,11 +2165,11 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2169,25 +2177,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>44939.72412037037</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2195,25 +2203,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>44939.77725694444</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2221,25 +2229,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>44939.70875</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2247,25 +2255,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>44940.022361111114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2273,25 +2281,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>44939.92901620371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2299,25 +2307,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>44940.01972222222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2325,25 +2333,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>44940.71905092592</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2351,25 +2359,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>44939.71380787037</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2377,25 +2385,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2">
         <v>44939.843773148146</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2403,25 +2411,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2">
         <v>44940.717256944445</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2429,25 +2437,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>44939.72545138889</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2455,51 +2463,51 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>44940.22565972222</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2">
         <v>45205.28907407408</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2507,103 +2515,103 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2">
         <v>44939.79240740741</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2">
         <v>45563.68680555555</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2">
         <v>45562.56611111111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2">
         <v>45464.05908564815</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2611,25 +2619,25 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2">
         <v>44940.16138888889</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="H20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2637,25 +2645,25 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2">
         <v>44940.021944444445</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2663,51 +2671,51 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2">
         <v>44939.9224537037</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
         <v>45205.725324074076</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2715,25 +2723,25 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2">
         <v>44940.016018518516</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>18</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2741,4553 +2749,5353 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2">
         <v>44939.92670138889</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2">
         <v>45123.17047453704</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2">
         <v>45123.65638888889</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2">
         <v>45158.81762731481</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>22</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2">
         <v>45465.69737268519</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>22</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2">
         <v>45465.698425925926</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>22</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2">
         <v>45465.70162037037</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>18</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2">
         <v>45465.70505787037</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>22</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2">
         <v>45465.707233796296</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>22</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="2">
         <v>45720.19645833333</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2">
         <v>45236.90091435185</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>22</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2">
         <v>45123.75971064815</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2">
         <v>45124.06046296296</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>22</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2">
         <v>45158.824525462966</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="H38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2">
         <v>45123.77568287037</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>22</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2">
         <v>45124.958182870374</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>22</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2">
         <v>44584.157997685186</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2">
         <v>44583.96643518518</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2">
         <v>44583.969409722224</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>22</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2">
         <v>44583.97460648148</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>18</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2">
         <v>44583.98427083333</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2">
         <v>44583.986979166664</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>148</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2">
         <v>44583.988587962966</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2">
         <v>44584.140497685185</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>22</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="2">
         <v>45310.45410879629</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="2">
         <v>45310.288668981484</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2">
         <v>45312.67354166666</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>18</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="2">
         <v>45317.66861111111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>18</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2">
         <v>45309.81040509259</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="H53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2">
         <v>44486.40355324074</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2">
         <v>44486.45670138889</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="H55" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2">
         <v>44486.605671296296</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>22</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2">
         <v>44486.486550925925</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>22</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="2">
         <v>44486.56642361111</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>22</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2">
         <v>44486.52546296296</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>22</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="2">
         <v>44486.68682870371</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>22</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D61" s="2">
         <v>44486.67319444445</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>22</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2">
         <v>44486.68355324074</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>22</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" s="2">
         <v>44486.71538194444</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>22</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D64" s="2">
         <v>44486.71942129629</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>22</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D65" s="2">
         <v>44486.83708333333</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>22</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" s="2">
         <v>44487.16814814815</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>22</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D67" s="2">
         <v>44486.77596064815</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>22</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2">
         <v>44486.420636574076</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>148</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2">
         <v>44486.49625</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>22</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2">
         <v>44486.763333333336</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>22</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D71" s="2">
         <v>45646.37113425926</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>22</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D72" s="2">
         <v>45779.74668981481</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="H72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D73" s="2">
         <v>45779.736180555556</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="H73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D74" s="2">
         <v>44487.80320601852</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>22</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2">
         <v>44487.804074074076</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>18</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D76" s="2">
         <v>44487.80384259259</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H76" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>241</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D77" s="2">
         <v>44489.73103009259</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>22</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2">
         <v>44486.42356481482</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>22</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2">
         <v>44487.80548611111</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>22</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D80" s="2">
         <v>44486.49706018518</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>22</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2">
         <v>44487.20662037037</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="H81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D82" s="2">
         <v>44487.80594907407</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>22</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D83" s="2">
         <v>44487.79653935185</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="H83" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D84" s="2">
         <v>44487.10266203704</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="2">
         <v>44487.80594907407</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>22</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D86" s="2">
         <v>45667.652546296296</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D87" s="2">
         <v>44611.06083333334</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="H87" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D88" s="2">
         <v>45779.89505787037</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="H88" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D89" s="2">
         <v>45572.65020833333</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="H89" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D90" s="2">
         <v>45572.45202546296</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>22</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D91" s="2">
         <v>45382.24947916667</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>18</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D92" s="2">
         <v>44494.270370370374</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="H92" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D93" s="2">
         <v>44494.87061342593</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="H93" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D94" s="2">
         <v>44932.78089120371</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>22</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D95" s="2">
         <v>44494.22247685185</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="H95" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D96" s="2">
         <v>45466.787256944444</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="H96" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D97" s="2">
         <v>45410.134108796294</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D98" s="2">
         <v>45410.88050925926</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>22</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D99" s="2">
         <v>44629.255694444444</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="H99" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D100" s="2">
         <v>44487.82686342593</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>22</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D101" s="2">
         <v>45329.34520833333</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H101" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>322</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D102" s="2">
         <v>45572.39412037037</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>22</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D103" s="2">
         <v>44545.980717592596</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H103" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>322</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D104" s="2">
         <v>45572.6166087963</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H104" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>22</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D105" s="2">
         <v>44545.790868055556</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H105" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>322</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D106" s="2">
         <v>44545.98305555555</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H106" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>322</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D107" s="2">
         <v>45328.380960648145</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="H107" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D108" s="2">
         <v>45328.34873842593</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="H108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D109" s="2">
         <v>45328.37295138889</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="H109" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D110" s="2">
         <v>45328.47375</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="H110" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D111" s="2">
         <v>45328.67396990741</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="H111" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D112" s="2">
         <v>45667.70332175926</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="H112" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D113" s="2">
         <v>44626.64873842592</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="H113" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D114" s="2">
         <v>45463.97806712963</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H114" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>22</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D115" s="2">
         <v>45463.98092592593</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="H115" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D116" s="2">
         <v>45463.99248842592</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H116" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>22</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D117" s="2">
         <v>45464.034270833334</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>22</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D118" s="2">
         <v>45464.03524305556</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>22</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D119" s="2">
         <v>45464.044594907406</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>22</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D120" s="2">
         <v>45464.047164351854</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H120" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>22</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D121" s="2">
         <v>45464.052835648145</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>22</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D122" s="2">
         <v>45464.077418981484</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>22</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D123" s="2">
         <v>45464.07879629629</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="H123" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D124" s="2">
         <v>45464.10875</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>22</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D125" s="2">
         <v>45464.14047453704</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>22</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D126" s="2">
         <v>45464.148993055554</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H126" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>22</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D127" s="2">
         <v>44611.585381944446</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H127" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="H127" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D128" s="2">
         <v>44611.39842592592</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="H128" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D129" s="2">
         <v>44611.586018518516</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>18</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D130" s="2">
         <v>44611.97636574074</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>18</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D131" s="2">
         <v>44612.433958333335</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>18</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D132" s="2">
         <v>45382.06462962963</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="H132" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D133" s="2">
         <v>45463.98746527778</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>22</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D134" s="2">
         <v>45464.792719907404</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="H134" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D135" s="2">
         <v>45465.69326388889</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H135" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>22</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D136" s="2">
         <v>45464.47357638889</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="H136" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D137" s="2">
         <v>45464.54010416667</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>22</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D138" s="2">
         <v>44785.97424768518</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="H138" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D139" s="2">
         <v>44786.01259259259</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="H139" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D140" s="2">
         <v>44786.14765046296</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H140" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>22</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D141" s="2">
         <v>45382.66216435185</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="H141" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D142" s="2">
         <v>45384.942141203705</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>18</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D143" s="2">
         <v>44494.20179398148</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="H143" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D144" s="2">
         <v>44494.16023148148</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="H144" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D145" s="2">
         <v>44494.18435185185</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="H145" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D146" s="2">
         <v>44494.16103009259</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="H146" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D147" s="2">
         <v>44494.16354166667</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D148" s="4">
+      <c r="H147" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" s="5">
         <v>45469.33311342593</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>459</v>
+      <c r="E148" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D149" s="4">
+        <v>18</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D149" s="5">
         <v>45466.8181712963</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>462</v>
+      <c r="E149" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="H149" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D150" s="2">
         <v>44494.2130787037</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H150" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>468</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D151" s="2">
         <v>44495.1890625</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H151" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="H151" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D152" s="2">
         <v>44494.26634259259</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H152" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>468</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D153" s="2">
         <v>44494.17056712963</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H153" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>468</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D154" s="2">
         <v>44496.091412037036</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H154" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>22</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D155" s="2">
         <v>44494.21662037037</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H155" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="H155" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D156" s="2">
         <v>44494.17233796296</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H156" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="H156" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D157" s="2">
         <v>44496.10616898148</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>18</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D158" s="2">
         <v>44494.22184027778</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H158" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="H158" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D159" s="2">
         <v>44496.109618055554</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D160" s="2">
         <v>44496.11336805556</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H160" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="H160" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D161" s="2">
         <v>44496.11478009259</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D162" s="2">
         <v>44496.11560185185</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="H162" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D163" s="2">
         <v>45411.10888888889</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="H163" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D164" s="2">
         <v>45414.03258101852</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H164" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>22</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2">
         <v>45412.62349537037</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>22</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D166" s="2">
         <v>45780.76398148148</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="H166" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D167" s="2">
         <v>45780.789618055554</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H167" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>18</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D168" s="2">
         <v>45780.81248842592</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="H168" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D169" s="2">
         <v>45780.93444444444</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H169" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="H169" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D170" s="2">
         <v>45780.800416666665</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="H170" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D171" s="2">
         <v>45780.85337962963</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H171" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="H171" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D172" s="2">
         <v>45780.79744212963</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H172" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="H172" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D173" s="2">
         <v>45780.94594907408</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="H173" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D174" s="2">
         <v>45780.94484953704</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="H174" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D175" s="2">
         <v>45780.866875</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H175" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="H175" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D176" s="2">
         <v>45780.948645833334</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="H176" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D177" s="2">
         <v>45780.834282407406</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H177" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>18</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D178" s="2">
         <v>45780.91694444444</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H178" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>18</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D179" s="2">
         <v>45780.909733796296</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H179" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>22</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D180" s="2">
         <v>45780.95622685185</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H180" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>18</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D181" s="2">
         <v>45781.21508101852</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H181" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>22</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D182" s="2">
         <v>45781.76604166667</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="H182" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D183" s="2">
         <v>45782.86997685185</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H183" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>18</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D184" s="2">
         <v>45780.92741898148</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="H184" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D185" s="2">
         <v>45780.930243055554</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H185" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="H185" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D186" s="2">
         <v>45781.04199074074</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H186" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>22</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D187" s="2">
         <v>45781.05255787037</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H187" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="H187" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D188" s="2">
         <v>45781.180601851855</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H188" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>22</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D189" s="2">
         <v>45781.31736111111</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H189" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="H189" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D190" s="2">
         <v>45781.367430555554</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H190" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>18</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D191" s="2">
         <v>45781.461122685185</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H191" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>18</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D192" s="2">
         <v>45782.848969907405</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H192" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>18</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D193" s="2">
         <v>45781.46871527778</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H193" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>18</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D194" s="2">
         <v>45780.96471064815</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H194" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>22</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D195" s="2">
         <v>45781.494571759256</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H195" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>22</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D196" s="2">
         <v>45782.031180555554</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H196" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="H196" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D197" s="2">
         <v>45782.04592592592</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H197" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="H197" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D198" s="2">
         <v>45782.307488425926</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H198" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="H198" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D199" s="2">
         <v>45782.460439814815</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H199" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="H199" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D200" s="2">
         <v>45782.7452662037</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="H200" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
